--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -76,25 +76,13 @@
     <t>Page 15</t>
   </si>
   <si>
-    <t>Based on the California LCFS, we choose to exempt aircraft,</t>
-  </si>
-  <si>
-    <t>rail, and ship modes.  All three on-road modes (LDVs, HDVs,</t>
-  </si>
-  <si>
-    <t>motorbikes) are considered to be subject to the LCFS.</t>
-  </si>
-  <si>
-    <t>(California appears to include some ships and rail under</t>
-  </si>
-  <si>
-    <t>their LCFS, but we do not do so here.)</t>
-  </si>
-  <si>
     <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
   </si>
   <si>
     <t>(Boolean)</t>
+  </si>
+  <si>
+    <t>Based on the California LCFS, we choose to exempt aircraft.</t>
   </si>
 </sst>
 </file>
@@ -451,18 +439,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,74 +460,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -554,19 +524,19 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -575,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -586,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -597,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -608,29 +578,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>7</v>
       </c>
